--- a/admins.xlsx
+++ b/admins.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>username</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>ynuinfo#777</t>
+  </si>
+  <si>
+    <t>@cc1234YNU</t>
   </si>
 </sst>
 </file>
@@ -87,7 +90,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/admins.xlsx
+++ b/admins.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -24,9 +24,6 @@
   </si>
   <si>
     <t>ynuinfo#777</t>
-  </si>
-  <si>
-    <t>@cc1234YNU</t>
   </si>
 </sst>
 </file>
@@ -90,7 +87,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/admins.xlsx
+++ b/admins.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="5">
   <si>
     <t>username</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>ynuinfo#777</t>
+  </si>
+  <si>
+    <t>@cc1234YNU</t>
   </si>
 </sst>
 </file>
@@ -68,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -87,6 +90,190 @@
         <v>2</v>
       </c>
       <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s" s="0">
         <v>3</v>
       </c>
     </row>

--- a/admins.xlsx
+++ b/admins.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="5">
   <si>
     <t>username</t>
   </si>
@@ -71,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -277,6 +277,54 @@
         <v>3</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/admins.xlsx
+++ b/admins.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="5">
   <si>
     <t>username</t>
   </si>
@@ -71,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -325,6 +325,38 @@
         <v>3</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/admins.xlsx
+++ b/admins.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="5">
   <si>
     <t>username</t>
   </si>
@@ -71,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -357,6 +357,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/admins.xlsx
+++ b/admins.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="5">
   <si>
     <t>username</t>
   </si>
@@ -71,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -98,7 +98,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -370,6 +370,22 @@
         <v>2</v>
       </c>
       <c r="B37" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s" s="0">
         <v>3</v>
       </c>
     </row>
